--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3877,28 +3877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>437.5243269145655</v>
+        <v>486.136047660135</v>
       </c>
       <c r="AB2" t="n">
-        <v>598.6400862955313</v>
+        <v>665.1527872173806</v>
       </c>
       <c r="AC2" t="n">
-        <v>541.5067166561232</v>
+        <v>601.6715387531531</v>
       </c>
       <c r="AD2" t="n">
-        <v>437524.3269145655</v>
+        <v>486136.047660135</v>
       </c>
       <c r="AE2" t="n">
-        <v>598640.0862955314</v>
+        <v>665152.7872173806</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.553415134626906e-06</v>
+        <v>4.724486519985992e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.951041666666668</v>
       </c>
       <c r="AH2" t="n">
-        <v>541506.7166561232</v>
+        <v>601671.5387531531</v>
       </c>
     </row>
     <row r="3">
@@ -3983,28 +3983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>172.1984918453882</v>
+        <v>184.3941819676173</v>
       </c>
       <c r="AB3" t="n">
-        <v>235.6095734040539</v>
+        <v>252.2962546651548</v>
       </c>
       <c r="AC3" t="n">
-        <v>213.1233263985523</v>
+        <v>228.2174542200033</v>
       </c>
       <c r="AD3" t="n">
-        <v>172198.4918453883</v>
+        <v>184394.1819676173</v>
       </c>
       <c r="AE3" t="n">
-        <v>235609.5734040539</v>
+        <v>252296.2546651548</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.652254393147006e-06</v>
+        <v>8.607888654650821e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.266666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>213123.3263985523</v>
+        <v>228217.4542200033</v>
       </c>
     </row>
     <row r="4">
@@ -4089,28 +4089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>131.7785510029137</v>
+        <v>156.0844113756981</v>
       </c>
       <c r="AB4" t="n">
-        <v>180.30522714147</v>
+        <v>213.5615776023776</v>
       </c>
       <c r="AC4" t="n">
-        <v>163.0971493231143</v>
+        <v>193.1795603716244</v>
       </c>
       <c r="AD4" t="n">
-        <v>131778.5510029137</v>
+        <v>156084.4113756981</v>
       </c>
       <c r="AE4" t="n">
-        <v>180305.22714147</v>
+        <v>213561.5776023776</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.386490716781653e-06</v>
+        <v>9.966418087038953e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.820833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>163097.1493231143</v>
+        <v>193179.5603716244</v>
       </c>
     </row>
     <row r="5">
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>120.3127068596133</v>
+        <v>132.593648327863</v>
       </c>
       <c r="AB5" t="n">
-        <v>164.6171533472709</v>
+        <v>181.4204792610211</v>
       </c>
       <c r="AC5" t="n">
-        <v>148.9063232734787</v>
+        <v>164.105963345642</v>
       </c>
       <c r="AD5" t="n">
-        <v>120312.7068596133</v>
+        <v>132593.648327863</v>
       </c>
       <c r="AE5" t="n">
-        <v>164617.1533472709</v>
+        <v>181420.4792610211</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.769729107838323e-06</v>
+        <v>1.067550944783443e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.633333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>148906.3232734787</v>
+        <v>164105.963345642</v>
       </c>
     </row>
     <row r="6">
@@ -4301,28 +4301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>113.6817174098632</v>
+        <v>125.9626588781128</v>
       </c>
       <c r="AB6" t="n">
-        <v>155.5443410435192</v>
+        <v>172.3476669572694</v>
       </c>
       <c r="AC6" t="n">
-        <v>140.6994074422221</v>
+        <v>155.8990475143854</v>
       </c>
       <c r="AD6" t="n">
-        <v>113681.7174098632</v>
+        <v>125962.6588781129</v>
       </c>
       <c r="AE6" t="n">
-        <v>155544.3410435192</v>
+        <v>172347.6669572694</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.019920901010073e-06</v>
+        <v>1.113842976902371e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.523958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>140699.4074422221</v>
+        <v>155899.0475143854</v>
       </c>
     </row>
     <row r="7">
@@ -4407,28 +4407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>109.0660470370764</v>
+        <v>121.1763963047338</v>
       </c>
       <c r="AB7" t="n">
-        <v>149.22897721047</v>
+        <v>165.7988913493733</v>
       </c>
       <c r="AC7" t="n">
-        <v>134.9867730697283</v>
+        <v>149.9752778592405</v>
       </c>
       <c r="AD7" t="n">
-        <v>109066.0470370764</v>
+        <v>121176.3963047338</v>
       </c>
       <c r="AE7" t="n">
-        <v>149228.97721047</v>
+        <v>165798.8913493733</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.189438605771341e-06</v>
+        <v>1.145208190501318e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.455208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>134986.7730697283</v>
+        <v>149975.2778592405</v>
       </c>
     </row>
     <row r="8">
@@ -4513,28 +4513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>105.7024572599398</v>
+        <v>117.8128065275972</v>
       </c>
       <c r="AB8" t="n">
-        <v>144.6267652862859</v>
+        <v>161.1966794251893</v>
       </c>
       <c r="AC8" t="n">
-        <v>130.8237897923419</v>
+        <v>145.8122945818541</v>
       </c>
       <c r="AD8" t="n">
-        <v>105702.4572599398</v>
+        <v>117812.8065275972</v>
       </c>
       <c r="AE8" t="n">
-        <v>144626.765286286</v>
+        <v>161196.6794251893</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.304979072355612e-06</v>
+        <v>1.16658620183554e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.410416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>130823.7897923419</v>
+        <v>145812.2945818541</v>
       </c>
     </row>
     <row r="9">
@@ -4619,28 +4619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>102.9306514040553</v>
+        <v>115.0410006717127</v>
       </c>
       <c r="AB9" t="n">
-        <v>140.8342582308227</v>
+        <v>157.404172369726</v>
       </c>
       <c r="AC9" t="n">
-        <v>127.3932342874338</v>
+        <v>142.381739076946</v>
       </c>
       <c r="AD9" t="n">
-        <v>102930.6514040553</v>
+        <v>115041.0006717127</v>
       </c>
       <c r="AE9" t="n">
-        <v>140834.2582308227</v>
+        <v>157404.172369726</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.400825141226656e-06</v>
+        <v>1.184320233965065e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.373958333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>127393.2342874338</v>
+        <v>142381.739076946</v>
       </c>
     </row>
     <row r="10">
@@ -4725,28 +4725,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>100.2759261239252</v>
+        <v>112.3862753915826</v>
       </c>
       <c r="AB10" t="n">
-        <v>137.2019459843369</v>
+        <v>153.7718601232403</v>
       </c>
       <c r="AC10" t="n">
-        <v>124.1075848237692</v>
+        <v>139.0960896132814</v>
       </c>
       <c r="AD10" t="n">
-        <v>100275.9261239252</v>
+        <v>112386.2753915826</v>
       </c>
       <c r="AE10" t="n">
-        <v>137201.9459843369</v>
+        <v>153771.8601232403</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.475955621391933e-06</v>
+        <v>1.19822133982002e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.346875</v>
       </c>
       <c r="AH10" t="n">
-        <v>124107.5848237692</v>
+        <v>139096.0896132814</v>
       </c>
     </row>
     <row r="11">
@@ -4831,28 +4831,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>98.18881304881657</v>
+        <v>110.299162316474</v>
       </c>
       <c r="AB11" t="n">
-        <v>134.3462657980444</v>
+        <v>150.9161799369477</v>
       </c>
       <c r="AC11" t="n">
-        <v>121.5244467464832</v>
+        <v>136.5129515359954</v>
       </c>
       <c r="AD11" t="n">
-        <v>98188.81304881658</v>
+        <v>110299.162316474</v>
       </c>
       <c r="AE11" t="n">
-        <v>134346.2657980444</v>
+        <v>150916.1799369477</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.528474015293876e-06</v>
+        <v>1.207938617699213e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.328125</v>
       </c>
       <c r="AH11" t="n">
-        <v>121524.4467464832</v>
+        <v>136512.9515359954</v>
       </c>
     </row>
     <row r="12">
@@ -4937,28 +4937,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>96.41800643176185</v>
+        <v>108.5283556994193</v>
       </c>
       <c r="AB12" t="n">
-        <v>131.923370062117</v>
+        <v>148.4932842010203</v>
       </c>
       <c r="AC12" t="n">
-        <v>119.3327887790364</v>
+        <v>134.3212935685486</v>
       </c>
       <c r="AD12" t="n">
-        <v>96418.00643176185</v>
+        <v>108528.3556994193</v>
       </c>
       <c r="AE12" t="n">
-        <v>131923.370062117</v>
+        <v>148493.2842010203</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.572385227972999e-06</v>
+        <v>1.216063341703759e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>3</v>
+        <v>2.3125</v>
       </c>
       <c r="AH12" t="n">
-        <v>119332.7887790364</v>
+        <v>134321.2935685486</v>
       </c>
     </row>
     <row r="13">
@@ -5043,28 +5043,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>96.17320700290041</v>
+        <v>108.2835562705579</v>
       </c>
       <c r="AB13" t="n">
-        <v>131.5884246837603</v>
+        <v>148.1583388226636</v>
       </c>
       <c r="AC13" t="n">
-        <v>119.0298101174912</v>
+        <v>134.0183149070034</v>
       </c>
       <c r="AD13" t="n">
-        <v>96173.20700290041</v>
+        <v>108283.5562705578</v>
       </c>
       <c r="AE13" t="n">
-        <v>131588.4246837603</v>
+        <v>148158.3388226636</v>
       </c>
       <c r="AF13" t="n">
-        <v>6.5669875041553e-06</v>
+        <v>1.215064621477287e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>3</v>
+        <v>2.314583333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>119029.8101174912</v>
+        <v>134018.3149070034</v>
       </c>
     </row>
     <row r="14">
@@ -5149,28 +5149,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>96.33454932378879</v>
+        <v>108.4448985914462</v>
       </c>
       <c r="AB14" t="n">
-        <v>131.8091803651205</v>
+        <v>148.3790945040238</v>
       </c>
       <c r="AC14" t="n">
-        <v>119.229497186455</v>
+        <v>134.2180019759672</v>
       </c>
       <c r="AD14" t="n">
-        <v>96334.54932378879</v>
+        <v>108444.8985914462</v>
       </c>
       <c r="AE14" t="n">
-        <v>131809.1803651205</v>
+        <v>148379.0945040238</v>
       </c>
       <c r="AF14" t="n">
-        <v>6.566403966445278e-06</v>
+        <v>1.214956651723073e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>2.314583333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>119229.497186455</v>
+        <v>134218.0019759672</v>
       </c>
     </row>
   </sheetData>
@@ -5446,28 +5446,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>277.8394227728409</v>
+        <v>313.045218316421</v>
       </c>
       <c r="AB2" t="n">
-        <v>380.1521556480502</v>
+        <v>428.3222782808586</v>
       </c>
       <c r="AC2" t="n">
-        <v>343.8709674599009</v>
+        <v>387.4438011958259</v>
       </c>
       <c r="AD2" t="n">
-        <v>277839.4227728409</v>
+        <v>313045.218316421</v>
       </c>
       <c r="AE2" t="n">
-        <v>380152.1556480501</v>
+        <v>428322.2782808586</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.333419337767864e-06</v>
+        <v>6.354011712387574e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.715625</v>
       </c>
       <c r="AH2" t="n">
-        <v>343870.9674599009</v>
+        <v>387443.8011958259</v>
       </c>
     </row>
     <row r="3">
@@ -5552,28 +5552,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.0478528300883</v>
+        <v>154.4899362409508</v>
       </c>
       <c r="AB3" t="n">
-        <v>179.3054536652825</v>
+        <v>211.3799463797391</v>
       </c>
       <c r="AC3" t="n">
-        <v>162.192792824303</v>
+        <v>191.2061409709352</v>
       </c>
       <c r="AD3" t="n">
-        <v>131047.8528300883</v>
+        <v>154489.9362409508</v>
       </c>
       <c r="AE3" t="n">
-        <v>179305.4536652825</v>
+        <v>211379.9463797391</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.251554061736967e-06</v>
+        <v>1.001027252660552e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.99375</v>
       </c>
       <c r="AH3" t="n">
-        <v>162192.7928243029</v>
+        <v>191206.1409709352</v>
       </c>
     </row>
     <row r="4">
@@ -5658,28 +5658,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>111.7166904137352</v>
+        <v>135.1587738245977</v>
       </c>
       <c r="AB4" t="n">
-        <v>152.8557044165454</v>
+        <v>184.930197131002</v>
       </c>
       <c r="AC4" t="n">
-        <v>138.2673705214007</v>
+        <v>167.280718668033</v>
       </c>
       <c r="AD4" t="n">
-        <v>111716.6904137352</v>
+        <v>135158.7738245977</v>
       </c>
       <c r="AE4" t="n">
-        <v>152855.7044165455</v>
+        <v>184930.197131002</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.929164204193401e-06</v>
+        <v>1.13019020353261e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.651041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>138267.3705214007</v>
+        <v>167280.718668033</v>
       </c>
     </row>
     <row r="5">
@@ -5764,28 +5764,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>103.2823423469699</v>
+        <v>115.1313953342586</v>
       </c>
       <c r="AB5" t="n">
-        <v>141.3154572944275</v>
+        <v>157.5278543349522</v>
       </c>
       <c r="AC5" t="n">
-        <v>127.8285083877755</v>
+        <v>142.4936170089998</v>
       </c>
       <c r="AD5" t="n">
-        <v>103282.3423469699</v>
+        <v>115131.3953342586</v>
       </c>
       <c r="AE5" t="n">
-        <v>141315.4572944276</v>
+        <v>157527.8543349522</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.276873283975055e-06</v>
+        <v>1.196468920416624e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.504166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>127828.5083877755</v>
+        <v>142493.6170089998</v>
       </c>
     </row>
     <row r="6">
@@ -5870,28 +5870,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>97.99132296542282</v>
+        <v>109.6697837521193</v>
       </c>
       <c r="AB6" t="n">
-        <v>134.0760511532976</v>
+        <v>150.0550364189754</v>
       </c>
       <c r="AC6" t="n">
-        <v>121.2800210081823</v>
+        <v>135.7339943467556</v>
       </c>
       <c r="AD6" t="n">
-        <v>97991.32296542282</v>
+        <v>109669.7837521193</v>
       </c>
       <c r="AE6" t="n">
-        <v>134076.0511532976</v>
+        <v>150055.0364189754</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.495549697431485e-06</v>
+        <v>1.238152019706961e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.419791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>121280.0210081823</v>
+        <v>135733.9943467556</v>
       </c>
     </row>
     <row r="7">
@@ -5976,28 +5976,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>94.34909368657942</v>
+        <v>106.0275544732759</v>
       </c>
       <c r="AB7" t="n">
-        <v>129.0925923701713</v>
+        <v>145.0715776358491</v>
       </c>
       <c r="AC7" t="n">
-        <v>116.7721765369877</v>
+        <v>131.226149875561</v>
       </c>
       <c r="AD7" t="n">
-        <v>94349.09368657942</v>
+        <v>106027.5544732759</v>
       </c>
       <c r="AE7" t="n">
-        <v>129092.5923701713</v>
+        <v>145071.5776358491</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.626242433148026e-06</v>
+        <v>1.263064072146872e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.372916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>116772.1765369877</v>
+        <v>131226.149875561</v>
       </c>
     </row>
     <row r="8">
@@ -6082,28 +6082,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>91.00657943047207</v>
+        <v>102.6850402171686</v>
       </c>
       <c r="AB8" t="n">
-        <v>124.5192169036458</v>
+        <v>140.4982021693236</v>
       </c>
       <c r="AC8" t="n">
-        <v>112.6352776062132</v>
+        <v>127.0892509447864</v>
       </c>
       <c r="AD8" t="n">
-        <v>91006.57943047208</v>
+        <v>102685.0402171686</v>
       </c>
       <c r="AE8" t="n">
-        <v>124519.2169036458</v>
+        <v>140498.2021693236</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.740636305749803e-06</v>
+        <v>1.284869309732846e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.332291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>112635.2776062131</v>
+        <v>127089.2509447864</v>
       </c>
     </row>
     <row r="9">
@@ -6188,28 +6188,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>88.67689356764141</v>
+        <v>100.3553543543379</v>
       </c>
       <c r="AB9" t="n">
-        <v>121.3316379276359</v>
+        <v>137.3106231933138</v>
       </c>
       <c r="AC9" t="n">
-        <v>109.7519166938775</v>
+        <v>124.2058900324508</v>
       </c>
       <c r="AD9" t="n">
-        <v>88676.89356764141</v>
+        <v>100355.3543543379</v>
       </c>
       <c r="AE9" t="n">
-        <v>121331.6379276359</v>
+        <v>137310.6231933138</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.820319636533099e-06</v>
+        <v>1.300058182352099e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.305208333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>109751.9166938775</v>
+        <v>124205.8900324508</v>
       </c>
     </row>
     <row r="10">
@@ -6294,28 +6294,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>88.78648663104937</v>
+        <v>100.4649474177459</v>
       </c>
       <c r="AB10" t="n">
-        <v>121.4815879918953</v>
+        <v>137.4605732575732</v>
       </c>
       <c r="AC10" t="n">
-        <v>109.8875557344602</v>
+        <v>124.3415290730335</v>
       </c>
       <c r="AD10" t="n">
-        <v>88786.48663104937</v>
+        <v>100464.9474177459</v>
       </c>
       <c r="AE10" t="n">
-        <v>121481.5879918953</v>
+        <v>137460.5732575732</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.810962881782029e-06</v>
+        <v>1.298274640491505e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.308333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>109887.5557344602</v>
+        <v>124341.5290730335</v>
       </c>
     </row>
     <row r="11">
@@ -6400,28 +6400,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>89.07458499409317</v>
+        <v>100.7530457807897</v>
       </c>
       <c r="AB11" t="n">
-        <v>121.8757768822145</v>
+        <v>137.8547621478923</v>
       </c>
       <c r="AC11" t="n">
-        <v>110.244123790335</v>
+        <v>124.6980971289083</v>
       </c>
       <c r="AD11" t="n">
-        <v>89074.58499409317</v>
+        <v>100753.0457807897</v>
       </c>
       <c r="AE11" t="n">
-        <v>121875.7768822145</v>
+        <v>137854.7621478923</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.810208304785976e-06</v>
+        <v>1.298130806470489e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.308333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>110244.123790335</v>
+        <v>124698.0971289083</v>
       </c>
     </row>
   </sheetData>
@@ -6697,28 +6697,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.7801494036807</v>
+        <v>120.2436814034225</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.2060435724305</v>
+        <v>164.5227096729225</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.8705895894249</v>
+        <v>148.8208931708575</v>
       </c>
       <c r="AD2" t="n">
-        <v>109780.1494036807</v>
+        <v>120243.6814034225</v>
       </c>
       <c r="AE2" t="n">
-        <v>150206.0435724305</v>
+        <v>164522.7096729225</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.803050233847217e-06</v>
+        <v>1.235897832282066e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.022916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>135870.5895894249</v>
+        <v>148820.8931708575</v>
       </c>
     </row>
     <row r="3">
@@ -6803,28 +6803,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.75292729396114</v>
+        <v>85.1311184391313</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.280252989958</v>
+        <v>116.4801519682523</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.51876919585875</v>
+        <v>105.3634497453526</v>
       </c>
       <c r="AD3" t="n">
-        <v>74752.92729396114</v>
+        <v>85131.1184391313</v>
       </c>
       <c r="AE3" t="n">
-        <v>102280.252989958</v>
+        <v>116480.1519682524</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.153446630400346e-06</v>
+        <v>1.523496924477942e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.452083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>92518.76919585875</v>
+        <v>105363.4497453526</v>
       </c>
     </row>
     <row r="4">
@@ -6909,28 +6909,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>70.89873812448219</v>
+        <v>81.27692926965233</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.00678133345383</v>
+        <v>111.2066803117482</v>
       </c>
       <c r="AC4" t="n">
-        <v>87.74859027288572</v>
+        <v>100.5932708223796</v>
       </c>
       <c r="AD4" t="n">
-        <v>70898.73812448219</v>
+        <v>81276.92926965233</v>
       </c>
       <c r="AE4" t="n">
-        <v>97006.78133345384</v>
+        <v>111206.6803117482</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.389542870326458e-06</v>
+        <v>1.573779244874329e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.373958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>87748.59027288572</v>
+        <v>100593.2708223796</v>
       </c>
     </row>
   </sheetData>
@@ -7206,28 +7206,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.6535681483268</v>
+        <v>170.4265680401349</v>
       </c>
       <c r="AB2" t="n">
-        <v>203.3943700730267</v>
+        <v>233.1851490819463</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.9826968591063</v>
+        <v>210.9302857310449</v>
       </c>
       <c r="AD2" t="n">
-        <v>148653.5681483268</v>
+        <v>170426.5680401349</v>
       </c>
       <c r="AE2" t="n">
-        <v>203394.3700730267</v>
+        <v>233185.1490819463</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.799245086500492e-06</v>
+        <v>9.744126776577321e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.496875</v>
       </c>
       <c r="AH2" t="n">
-        <v>183982.6968591062</v>
+        <v>210930.2857310449</v>
       </c>
     </row>
     <row r="3">
@@ -7312,28 +7312,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.51065054939612</v>
+        <v>104.5677874501679</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.945397480377</v>
+        <v>143.0742599944578</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.7344683173769</v>
+        <v>129.4194534266105</v>
       </c>
       <c r="AD3" t="n">
-        <v>93510.65054939612</v>
+        <v>104567.7874501679</v>
       </c>
       <c r="AE3" t="n">
-        <v>127945.397480377</v>
+        <v>143074.2599944578</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.373700347674353e-06</v>
+        <v>1.294081529579485e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.633333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>115734.4683173769</v>
+        <v>129419.4534266105</v>
       </c>
     </row>
     <row r="4">
@@ -7418,28 +7418,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.93698015828335</v>
+        <v>93.82352485846297</v>
       </c>
       <c r="AB4" t="n">
-        <v>113.4780351738485</v>
+        <v>128.3734859130824</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.6478507643083</v>
+        <v>116.1217005908909</v>
       </c>
       <c r="AD4" t="n">
-        <v>82936.98015828335</v>
+        <v>93823.52485846297</v>
       </c>
       <c r="AE4" t="n">
-        <v>113478.0351738485</v>
+        <v>128373.4859130824</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.928698646532834e-06</v>
+        <v>1.406765372296198e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>102647.8507643083</v>
+        <v>116121.7005908909</v>
       </c>
     </row>
     <row r="5">
@@ -7524,28 +7524,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>77.78069484712967</v>
+        <v>88.66723954730928</v>
       </c>
       <c r="AB5" t="n">
-        <v>106.4229781318783</v>
+        <v>121.3184288711122</v>
       </c>
       <c r="AC5" t="n">
-        <v>96.2661184645867</v>
+        <v>109.7399682911693</v>
       </c>
       <c r="AD5" t="n">
-        <v>77780.69484712966</v>
+        <v>88667.23954730928</v>
       </c>
       <c r="AE5" t="n">
-        <v>106422.9781318782</v>
+        <v>121318.4288711122</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.178085400272437e-06</v>
+        <v>1.457399505395029e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.3375</v>
       </c>
       <c r="AH5" t="n">
-        <v>96266.1184645867</v>
+        <v>109739.9682911693</v>
       </c>
     </row>
     <row r="6">
@@ -7630,28 +7630,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>77.33113313585548</v>
+        <v>88.21767783603509</v>
       </c>
       <c r="AB6" t="n">
-        <v>105.8078679652503</v>
+        <v>120.7033187044842</v>
       </c>
       <c r="AC6" t="n">
-        <v>95.70971354894897</v>
+        <v>109.1835633755316</v>
       </c>
       <c r="AD6" t="n">
-        <v>77331.13313585547</v>
+        <v>88217.67783603509</v>
       </c>
       <c r="AE6" t="n">
-        <v>105807.8679652503</v>
+        <v>120703.3187044842</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.201445270616264e-06</v>
+        <v>1.462142366699506e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.330208333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>95709.71354894897</v>
+        <v>109183.5633755316</v>
       </c>
     </row>
   </sheetData>
@@ -7927,28 +7927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.01140658702526</v>
+        <v>97.01904232644037</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.3704039958012</v>
+        <v>132.745733889048</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.31400052675943</v>
+        <v>120.0766673565202</v>
       </c>
       <c r="AD2" t="n">
-        <v>77011.40658702527</v>
+        <v>97019.04232644037</v>
       </c>
       <c r="AE2" t="n">
-        <v>105370.4039958012</v>
+        <v>132745.733889048</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.665155668357e-06</v>
+        <v>1.484199980829132e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.733333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>95314.00052675942</v>
+        <v>120076.6673565203</v>
       </c>
     </row>
     <row r="3">
@@ -8033,28 +8033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.26462626754605</v>
+        <v>76.22586321851884</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.66618504821072</v>
+        <v>104.2955889032837</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.0131315980214</v>
+        <v>94.34176427815898</v>
       </c>
       <c r="AD3" t="n">
-        <v>66264.62626754605</v>
+        <v>76225.86321851883</v>
       </c>
       <c r="AE3" t="n">
-        <v>90666.18504821073</v>
+        <v>104295.5889032837</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.453067350268051e-06</v>
+        <v>1.659652522581349e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.444791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>82013.1315980214</v>
+        <v>94341.76427815898</v>
       </c>
     </row>
   </sheetData>
@@ -8330,28 +8330,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>306.0570450477513</v>
+        <v>341.6033951759553</v>
       </c>
       <c r="AB2" t="n">
-        <v>418.7607513182185</v>
+        <v>467.3968357579172</v>
       </c>
       <c r="AC2" t="n">
-        <v>378.7948129468128</v>
+        <v>422.7891377487597</v>
       </c>
       <c r="AD2" t="n">
-        <v>306057.0450477513</v>
+        <v>341603.3951759553</v>
       </c>
       <c r="AE2" t="n">
-        <v>418760.7513182185</v>
+        <v>467396.8357579172</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.133725169524287e-06</v>
+        <v>5.925133697985435e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.971875</v>
       </c>
       <c r="AH2" t="n">
-        <v>378794.8129468128</v>
+        <v>422789.1377487598</v>
       </c>
     </row>
     <row r="3">
@@ -8436,28 +8436,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.8535172428676</v>
+        <v>161.7308370790103</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.0361933621946</v>
+        <v>221.2872663523668</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.4678268378699</v>
+        <v>200.1679202303893</v>
       </c>
       <c r="AD3" t="n">
-        <v>149853.5172428676</v>
+        <v>161730.8370790103</v>
       </c>
       <c r="AE3" t="n">
-        <v>205036.1933621946</v>
+        <v>221287.2663523668</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.092808164589367e-06</v>
+        <v>9.629296648871283e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.059375</v>
       </c>
       <c r="AH3" t="n">
-        <v>185467.8268378699</v>
+        <v>200167.9202303893</v>
       </c>
     </row>
     <row r="4">
@@ -8542,28 +8542,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.5898917935164</v>
+        <v>140.2590115941282</v>
       </c>
       <c r="AB4" t="n">
-        <v>159.5234335348304</v>
+        <v>191.9085674538803</v>
       </c>
       <c r="AC4" t="n">
-        <v>144.2987409308552</v>
+        <v>173.5930831215022</v>
       </c>
       <c r="AD4" t="n">
-        <v>116589.8917935164</v>
+        <v>140259.0115941282</v>
       </c>
       <c r="AE4" t="n">
-        <v>159523.4335348304</v>
+        <v>191908.5674538803</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.786615784568519e-06</v>
+        <v>1.094112288974154e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.692708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>144298.7409308552</v>
+        <v>173593.0831215022</v>
       </c>
     </row>
     <row r="5">
@@ -8648,28 +8648,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>107.2223478922951</v>
+        <v>119.1849190744584</v>
       </c>
       <c r="AB5" t="n">
-        <v>146.7063467023158</v>
+        <v>163.0740643451371</v>
       </c>
       <c r="AC5" t="n">
-        <v>132.7048988767374</v>
+        <v>147.5105045199691</v>
       </c>
       <c r="AD5" t="n">
-        <v>107222.3478922951</v>
+        <v>119184.9190744584</v>
       </c>
       <c r="AE5" t="n">
-        <v>146706.3467023158</v>
+        <v>163074.0643451372</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.153485819448635e-06</v>
+        <v>1.163478742279925e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.53125</v>
       </c>
       <c r="AH5" t="n">
-        <v>132704.8988767374</v>
+        <v>147510.5045199691</v>
       </c>
     </row>
     <row r="6">
@@ -8754,28 +8754,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>101.9903525517243</v>
+        <v>113.7823315332954</v>
       </c>
       <c r="AB6" t="n">
-        <v>139.5476998580065</v>
+        <v>155.682005725981</v>
       </c>
       <c r="AC6" t="n">
-        <v>126.2294632400227</v>
+        <v>140.8239336006034</v>
       </c>
       <c r="AD6" t="n">
-        <v>101990.3525517243</v>
+        <v>113782.3315332954</v>
       </c>
       <c r="AE6" t="n">
-        <v>139547.6998580065</v>
+        <v>155682.005725981</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.363766809681592e-06</v>
+        <v>1.203237907933376e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.447916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>126229.4632400227</v>
+        <v>140823.9336006034</v>
       </c>
     </row>
     <row r="7">
@@ -8860,28 +8860,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>97.86733061787385</v>
+        <v>109.659309599445</v>
       </c>
       <c r="AB7" t="n">
-        <v>133.9063993532249</v>
+        <v>150.0407052211993</v>
       </c>
       <c r="AC7" t="n">
-        <v>121.1265605378007</v>
+        <v>135.7210308983813</v>
       </c>
       <c r="AD7" t="n">
-        <v>97867.33061787384</v>
+        <v>109659.309599445</v>
       </c>
       <c r="AE7" t="n">
-        <v>133906.3993532248</v>
+        <v>150040.7052211993</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.524992206175993e-06</v>
+        <v>1.233721820148468e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.3875</v>
       </c>
       <c r="AH7" t="n">
-        <v>121126.5605378007</v>
+        <v>135721.0308983813</v>
       </c>
     </row>
     <row r="8">
@@ -8966,28 +8966,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>94.47132062472096</v>
+        <v>106.2632996062921</v>
       </c>
       <c r="AB8" t="n">
-        <v>129.2598286592084</v>
+        <v>145.3941345271829</v>
       </c>
       <c r="AC8" t="n">
-        <v>116.9234520293167</v>
+        <v>131.5179223898974</v>
       </c>
       <c r="AD8" t="n">
-        <v>94471.32062472096</v>
+        <v>106263.2996062921</v>
       </c>
       <c r="AE8" t="n">
-        <v>129259.8286592084</v>
+        <v>145394.1345271829</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.641798360779079e-06</v>
+        <v>1.255807103487974e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.345833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>116923.4520293167</v>
+        <v>131517.9223898974</v>
       </c>
     </row>
     <row r="9">
@@ -9072,28 +9072,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>92.13977865569004</v>
+        <v>103.9317576372612</v>
       </c>
       <c r="AB9" t="n">
-        <v>126.0697100768097</v>
+        <v>142.2040159447842</v>
       </c>
       <c r="AC9" t="n">
-        <v>114.0377938870616</v>
+        <v>128.6322642476423</v>
       </c>
       <c r="AD9" t="n">
-        <v>92139.77865569004</v>
+        <v>103931.7576372612</v>
       </c>
       <c r="AE9" t="n">
-        <v>126069.7100768097</v>
+        <v>142204.0159447842</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.701622255582197e-06</v>
+        <v>1.267118388168899e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.325</v>
       </c>
       <c r="AH9" t="n">
-        <v>114037.7938870616</v>
+        <v>128632.2642476423</v>
       </c>
     </row>
     <row r="10">
@@ -9178,28 +9178,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>90.44023853794454</v>
+        <v>102.2322175195156</v>
       </c>
       <c r="AB10" t="n">
-        <v>123.7443243092932</v>
+        <v>139.8786301772677</v>
       </c>
       <c r="AC10" t="n">
-        <v>111.9343396734967</v>
+        <v>126.5288100340774</v>
       </c>
       <c r="AD10" t="n">
-        <v>90440.23853794453</v>
+        <v>102232.2175195156</v>
       </c>
       <c r="AE10" t="n">
-        <v>123744.3243092932</v>
+        <v>139878.6301772677</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.755762880379018e-06</v>
+        <v>1.277355100805136e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.30625</v>
       </c>
       <c r="AH10" t="n">
-        <v>111934.3396734967</v>
+        <v>126528.8100340774</v>
       </c>
     </row>
     <row r="11">
@@ -9284,28 +9284,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>90.50940883652206</v>
+        <v>102.3013878180931</v>
       </c>
       <c r="AB11" t="n">
-        <v>123.8389661633851</v>
+        <v>139.9732720313596</v>
       </c>
       <c r="AC11" t="n">
-        <v>112.0199490418648</v>
+        <v>126.6144194024455</v>
       </c>
       <c r="AD11" t="n">
-        <v>90509.40883652205</v>
+        <v>102301.3878180931</v>
       </c>
       <c r="AE11" t="n">
-        <v>123838.9661633851</v>
+        <v>139973.2720313596</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.754566402482956e-06</v>
+        <v>1.277128875111517e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.30625</v>
       </c>
       <c r="AH11" t="n">
-        <v>112019.9490418648</v>
+        <v>126614.4194024455</v>
       </c>
     </row>
   </sheetData>
@@ -9581,28 +9581,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.36567837395403</v>
+        <v>76.25060821332428</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.80444899830236</v>
+        <v>104.3294460968486</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.13819983077101</v>
+        <v>94.37239018868897</v>
       </c>
       <c r="AD2" t="n">
-        <v>66365.67837395403</v>
+        <v>76250.60821332429</v>
       </c>
       <c r="AE2" t="n">
-        <v>90804.44899830237</v>
+        <v>104329.4460968486</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.190248340460476e-06</v>
+        <v>1.648412425652722e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.592708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>82138.19983077102</v>
+        <v>94372.39018868897</v>
       </c>
     </row>
     <row r="3">
@@ -9687,28 +9687,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.96465387915083</v>
+        <v>73.84958371852109</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.51926135878944</v>
+        <v>101.0442584573357</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.16654588878234</v>
+        <v>91.40073624670028</v>
       </c>
       <c r="AD3" t="n">
-        <v>63964.65387915083</v>
+        <v>73849.58371852108</v>
       </c>
       <c r="AE3" t="n">
-        <v>87519.26135878943</v>
+        <v>101044.2584573357</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.415592427402617e-06</v>
+        <v>1.700074061715073e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.514583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>79166.54588878233</v>
+        <v>91400.73624670028</v>
       </c>
     </row>
   </sheetData>
@@ -9984,28 +9984,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.1742011981422</v>
+        <v>231.8795311854353</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.2013701936351</v>
+        <v>317.2678043706973</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.8867131085846</v>
+        <v>286.9882104098122</v>
       </c>
       <c r="AD2" t="n">
-        <v>209174.2011981422</v>
+        <v>231879.5311854353</v>
       </c>
       <c r="AE2" t="n">
-        <v>286201.3701936351</v>
+        <v>317267.8043706973</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.009921956724743e-06</v>
+        <v>7.859391618322983e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.039583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>258886.7131085846</v>
+        <v>286988.2104098122</v>
       </c>
     </row>
     <row r="3">
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.8827251690814</v>
+        <v>134.5879656478234</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.0828804937464</v>
+        <v>184.1491922012603</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.4728652326373</v>
+        <v>166.5742517526383</v>
       </c>
       <c r="AD3" t="n">
-        <v>111882.7251690814</v>
+        <v>134587.9656478234</v>
       </c>
       <c r="AE3" t="n">
-        <v>153082.8804937464</v>
+        <v>184149.1922012603</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.764466892925527e-06</v>
+        <v>1.129827544558098e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.809375</v>
       </c>
       <c r="AH3" t="n">
-        <v>138472.8652326373</v>
+        <v>166574.2517526383</v>
       </c>
     </row>
     <row r="4">
@@ -10196,28 +10196,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.45951326824203</v>
+        <v>108.9401447894705</v>
       </c>
       <c r="AB4" t="n">
-        <v>133.3484056638272</v>
+        <v>149.0567122008806</v>
       </c>
       <c r="AC4" t="n">
-        <v>120.6218209829699</v>
+        <v>134.8309487908786</v>
       </c>
       <c r="AD4" t="n">
-        <v>97459.51326824204</v>
+        <v>108940.1447894705</v>
       </c>
       <c r="AE4" t="n">
-        <v>133348.4056638272</v>
+        <v>149056.7122008806</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.389068719291934e-06</v>
+        <v>1.252248639330301e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.535416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>120621.8209829699</v>
+        <v>134830.9487908786</v>
       </c>
     </row>
     <row r="5">
@@ -10302,28 +10302,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>90.91085535620454</v>
+        <v>102.2208946768408</v>
       </c>
       <c r="AB5" t="n">
-        <v>124.3882430021849</v>
+        <v>139.8631377643914</v>
       </c>
       <c r="AC5" t="n">
-        <v>112.5168036700846</v>
+        <v>126.5147961953423</v>
       </c>
       <c r="AD5" t="n">
-        <v>90910.85535620454</v>
+        <v>102220.8946768408</v>
       </c>
       <c r="AE5" t="n">
-        <v>124388.2430021849</v>
+        <v>139863.1377643914</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.69134055161862e-06</v>
+        <v>1.311493500728649e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.420833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>112516.8036700846</v>
+        <v>126514.7961953423</v>
       </c>
     </row>
     <row r="6">
@@ -10408,28 +10408,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>86.17523327208308</v>
+        <v>97.48527259271933</v>
       </c>
       <c r="AB6" t="n">
-        <v>117.9087559457917</v>
+        <v>133.3836507079982</v>
       </c>
       <c r="AC6" t="n">
-        <v>106.6557097643343</v>
+        <v>120.653702289592</v>
       </c>
       <c r="AD6" t="n">
-        <v>86175.23327208307</v>
+        <v>97485.27259271932</v>
       </c>
       <c r="AE6" t="n">
-        <v>117908.7559457917</v>
+        <v>133383.6507079982</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.893321575380125e-06</v>
+        <v>1.351081502249458e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.35</v>
       </c>
       <c r="AH6" t="n">
-        <v>106655.7097643343</v>
+        <v>120653.702289592</v>
       </c>
     </row>
     <row r="7">
@@ -10514,28 +10514,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>83.11360386754492</v>
+        <v>94.42364318818119</v>
       </c>
       <c r="AB7" t="n">
-        <v>113.7196995249481</v>
+        <v>129.1945942871546</v>
       </c>
       <c r="AC7" t="n">
-        <v>102.8664510089171</v>
+        <v>116.8644435341748</v>
       </c>
       <c r="AD7" t="n">
-        <v>83113.60386754492</v>
+        <v>94423.64318818119</v>
       </c>
       <c r="AE7" t="n">
-        <v>113719.6995249481</v>
+        <v>129194.5942871546</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.006051553999902e-06</v>
+        <v>1.373176422266846e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.311458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>102866.4510089171</v>
+        <v>116864.4435341748</v>
       </c>
     </row>
     <row r="8">
@@ -10620,28 +10620,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>83.17991612845415</v>
+        <v>94.4899554490904</v>
       </c>
       <c r="AB8" t="n">
-        <v>113.8104308858146</v>
+        <v>129.2853256480211</v>
       </c>
       <c r="AC8" t="n">
-        <v>102.9485230960447</v>
+        <v>116.9465156213024</v>
       </c>
       <c r="AD8" t="n">
-        <v>83179.91612845415</v>
+        <v>94489.9554490904</v>
       </c>
       <c r="AE8" t="n">
-        <v>113810.4308858146</v>
+        <v>129285.3256480211</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.999365500095557e-06</v>
+        <v>1.371865964941677e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.313541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>102948.5230960447</v>
+        <v>116946.5156213024</v>
       </c>
     </row>
   </sheetData>
@@ -10917,28 +10917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>252.4117447645272</v>
+        <v>275.6182479505189</v>
       </c>
       <c r="AB2" t="n">
-        <v>345.3608848069304</v>
+        <v>377.1130462648319</v>
       </c>
       <c r="AC2" t="n">
-        <v>312.4001266781061</v>
+        <v>341.1219064108002</v>
       </c>
       <c r="AD2" t="n">
-        <v>252411.7447645272</v>
+        <v>275618.2479505189</v>
       </c>
       <c r="AE2" t="n">
-        <v>345360.8848069304</v>
+        <v>377113.0462648319</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.546528997480049e-06</v>
+        <v>6.818922231154287e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.475000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>312400.1266781061</v>
+        <v>341121.9064108002</v>
       </c>
     </row>
     <row r="3">
@@ -11023,28 +11023,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.5334376627843</v>
+        <v>147.7398513402215</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.392143437668</v>
+        <v>202.1441824258373</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.1301564148996</v>
+        <v>182.8518253663147</v>
       </c>
       <c r="AD3" t="n">
-        <v>124533.4376627843</v>
+        <v>147739.8513402216</v>
       </c>
       <c r="AE3" t="n">
-        <v>170392.143437668</v>
+        <v>202144.1824258373</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.413716565378819e-06</v>
+        <v>1.040896952120227e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.93125</v>
       </c>
       <c r="AH3" t="n">
-        <v>154130.1564148996</v>
+        <v>182851.8253663147</v>
       </c>
     </row>
     <row r="4">
@@ -11129,28 +11129,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.8612064798616</v>
+        <v>118.5924246004376</v>
       </c>
       <c r="AB4" t="n">
-        <v>146.2122170893899</v>
+        <v>162.263387266771</v>
       </c>
       <c r="AC4" t="n">
-        <v>132.2579283005537</v>
+        <v>146.7771973241695</v>
       </c>
       <c r="AD4" t="n">
-        <v>106861.2064798616</v>
+        <v>118592.4246004376</v>
       </c>
       <c r="AE4" t="n">
-        <v>146212.2170893899</v>
+        <v>162263.387266771</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.078566968961573e-06</v>
+        <v>1.168727944073306e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.610416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>132257.9283005537</v>
+        <v>146777.1973241695</v>
       </c>
     </row>
     <row r="5">
@@ -11235,28 +11235,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>99.18265909204607</v>
+        <v>110.7432850120299</v>
       </c>
       <c r="AB5" t="n">
-        <v>135.7060897997832</v>
+        <v>151.5238482023175</v>
       </c>
       <c r="AC5" t="n">
-        <v>122.7544910540215</v>
+        <v>137.0626247949862</v>
       </c>
       <c r="AD5" t="n">
-        <v>99182.65909204607</v>
+        <v>110743.2850120299</v>
       </c>
       <c r="AE5" t="n">
-        <v>135706.0897997832</v>
+        <v>151523.8482023175</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.407640495941121e-06</v>
+        <v>1.231999012501044e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.477083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>122754.4910540215</v>
+        <v>137062.6247949862</v>
       </c>
     </row>
     <row r="6">
@@ -11341,28 +11341,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>93.81993145790264</v>
+        <v>105.3805573778865</v>
       </c>
       <c r="AB6" t="n">
-        <v>128.3685692639061</v>
+        <v>144.1863276664403</v>
       </c>
       <c r="AC6" t="n">
-        <v>116.1172531798114</v>
+        <v>130.4253869207762</v>
       </c>
       <c r="AD6" t="n">
-        <v>93819.93145790264</v>
+        <v>105380.5573778865</v>
       </c>
       <c r="AE6" t="n">
-        <v>128368.5692639061</v>
+        <v>144186.3276664403</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.631593312913314e-06</v>
+        <v>1.275058489625478e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.392708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>116117.2531798114</v>
+        <v>130425.3869207762</v>
       </c>
     </row>
     <row r="7">
@@ -11447,28 +11447,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>90.23746670154073</v>
+        <v>101.7980926215246</v>
       </c>
       <c r="AB7" t="n">
-        <v>123.4668829370636</v>
+        <v>139.2846413395978</v>
       </c>
       <c r="AC7" t="n">
-        <v>111.6833769164412</v>
+        <v>125.9915106574059</v>
       </c>
       <c r="AD7" t="n">
-        <v>90237.46670154073</v>
+        <v>101798.0926215246</v>
       </c>
       <c r="AE7" t="n">
-        <v>123466.8829370636</v>
+        <v>139284.6413395978</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.764746212255964e-06</v>
+        <v>1.300659838609664e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.345833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>111683.3769164412</v>
+        <v>125991.5106574059</v>
       </c>
     </row>
     <row r="8">
@@ -11553,28 +11553,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>87.56620501170863</v>
+        <v>99.12683093169247</v>
       </c>
       <c r="AB8" t="n">
-        <v>119.8119448452886</v>
+        <v>135.6297032478229</v>
       </c>
       <c r="AC8" t="n">
-        <v>108.3772609864063</v>
+        <v>122.685394727371</v>
       </c>
       <c r="AD8" t="n">
-        <v>87566.20501170863</v>
+        <v>99126.83093169247</v>
       </c>
       <c r="AE8" t="n">
-        <v>119811.9448452886</v>
+        <v>135629.7032478229</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.854479687899925e-06</v>
+        <v>1.317912921620747e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.315625</v>
       </c>
       <c r="AH8" t="n">
-        <v>108377.2609864063</v>
+        <v>122685.394727371</v>
       </c>
     </row>
     <row r="9">
@@ -11659,28 +11659,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>86.84763609520667</v>
+        <v>98.4082620151905</v>
       </c>
       <c r="AB9" t="n">
-        <v>118.8287671527079</v>
+        <v>134.6465255552421</v>
       </c>
       <c r="AC9" t="n">
-        <v>107.4879163929065</v>
+        <v>121.7960501338713</v>
       </c>
       <c r="AD9" t="n">
-        <v>86847.63609520666</v>
+        <v>98408.2620151905</v>
       </c>
       <c r="AE9" t="n">
-        <v>118828.7671527079</v>
+        <v>134646.5255552421</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.87519913219123e-06</v>
+        <v>1.32189665555879e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.308333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>107487.9163929065</v>
+        <v>121796.0501338713</v>
       </c>
     </row>
     <row r="10">
@@ -11765,28 +11765,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>87.10536827617173</v>
+        <v>98.66599419615558</v>
       </c>
       <c r="AB10" t="n">
-        <v>119.1814076930455</v>
+        <v>134.9991660955797</v>
       </c>
       <c r="AC10" t="n">
-        <v>107.8069014150085</v>
+        <v>122.1150351559733</v>
       </c>
       <c r="AD10" t="n">
-        <v>87105.36827617174</v>
+        <v>98665.99419615557</v>
       </c>
       <c r="AE10" t="n">
-        <v>119181.4076930455</v>
+        <v>134999.1660955797</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.875046783336146e-06</v>
+        <v>1.321867363397481e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.308333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>107806.9014150085</v>
+        <v>122115.0351559733</v>
       </c>
     </row>
   </sheetData>
@@ -12062,28 +12062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>390.7537326336631</v>
+        <v>427.0322989517717</v>
       </c>
       <c r="AB2" t="n">
-        <v>534.6464958274064</v>
+        <v>584.2844307612312</v>
       </c>
       <c r="AC2" t="n">
-        <v>483.6205846467079</v>
+        <v>528.5211447377276</v>
       </c>
       <c r="AD2" t="n">
-        <v>390753.7326336631</v>
+        <v>427032.2989517717</v>
       </c>
       <c r="AE2" t="n">
-        <v>534646.4958274064</v>
+        <v>584284.4307612312</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.742788403952953e-06</v>
+        <v>5.109606765871477e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.584375000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>483620.5846467079</v>
+        <v>528521.1447377276</v>
       </c>
     </row>
     <row r="3">
@@ -12168,28 +12168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.4923864109651</v>
+        <v>176.5853313588856</v>
       </c>
       <c r="AB3" t="n">
-        <v>225.0657399793036</v>
+        <v>241.6118407601183</v>
       </c>
       <c r="AC3" t="n">
-        <v>203.5857816374936</v>
+        <v>218.5527457823909</v>
       </c>
       <c r="AD3" t="n">
-        <v>164492.3864109651</v>
+        <v>176585.3313588856</v>
       </c>
       <c r="AE3" t="n">
-        <v>225065.7399793036</v>
+        <v>241611.8407601183</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.792821276540779e-06</v>
+        <v>8.928662519839645e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.195833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>203585.7816374936</v>
+        <v>218552.7457823909</v>
       </c>
     </row>
     <row r="4">
@@ -12274,28 +12274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.4628081914148</v>
+        <v>150.5631782155819</v>
       </c>
       <c r="AB4" t="n">
-        <v>173.0319933127592</v>
+        <v>206.0071828130944</v>
       </c>
       <c r="AC4" t="n">
-        <v>156.5180627229655</v>
+        <v>186.3461464183683</v>
       </c>
       <c r="AD4" t="n">
-        <v>126462.8081914148</v>
+        <v>150563.1782155819</v>
       </c>
       <c r="AE4" t="n">
-        <v>173031.9933127592</v>
+        <v>206007.1828130944</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.519692554727539e-06</v>
+        <v>1.028276858051425e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.775</v>
       </c>
       <c r="AH4" t="n">
-        <v>156518.0627229656</v>
+        <v>186346.1464183683</v>
       </c>
     </row>
     <row r="5">
@@ -12380,28 +12380,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>115.9778348043157</v>
+        <v>128.1560310982567</v>
       </c>
       <c r="AB5" t="n">
-        <v>158.6859901601578</v>
+        <v>175.3487355936218</v>
       </c>
       <c r="AC5" t="n">
-        <v>143.541221976502</v>
+        <v>158.6136983721116</v>
       </c>
       <c r="AD5" t="n">
-        <v>115977.8348043157</v>
+        <v>128156.0310982567</v>
       </c>
       <c r="AE5" t="n">
-        <v>158685.9901601578</v>
+        <v>175348.7355936218</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.88834849128716e-06</v>
+        <v>1.096954662909026e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.601041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>143541.221976502</v>
+        <v>158613.6983721116</v>
       </c>
     </row>
     <row r="6">
@@ -12486,28 +12486,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>109.6378900151502</v>
+        <v>121.645494108499</v>
       </c>
       <c r="AB6" t="n">
-        <v>150.0113980010019</v>
+        <v>166.4407316596191</v>
       </c>
       <c r="AC6" t="n">
-        <v>135.6945207181466</v>
+        <v>150.5558618311051</v>
       </c>
       <c r="AD6" t="n">
-        <v>109637.8900151502</v>
+        <v>121645.494108499</v>
       </c>
       <c r="AE6" t="n">
-        <v>150011.3980010019</v>
+        <v>166440.7316596191</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.133187794985512e-06</v>
+        <v>1.142566368169459e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.497916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>135694.5207181466</v>
+        <v>150555.8618311051</v>
       </c>
     </row>
     <row r="7">
@@ -12592,28 +12592,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>105.6341185602046</v>
+        <v>117.6417226535534</v>
       </c>
       <c r="AB7" t="n">
-        <v>144.5332612624177</v>
+        <v>160.9625949210348</v>
       </c>
       <c r="AC7" t="n">
-        <v>130.7392096612779</v>
+        <v>145.6005507742364</v>
       </c>
       <c r="AD7" t="n">
-        <v>105634.1185602046</v>
+        <v>117641.7226535534</v>
       </c>
       <c r="AE7" t="n">
-        <v>144533.2612624177</v>
+        <v>160962.5949210348</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.289061465808487e-06</v>
+        <v>1.171604450797723e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.435416666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>130739.2096612779</v>
+        <v>145600.5507742364</v>
       </c>
     </row>
     <row r="8">
@@ -12698,28 +12698,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>102.1257833553633</v>
+        <v>114.1333874487121</v>
       </c>
       <c r="AB8" t="n">
-        <v>139.7330022583305</v>
+        <v>156.1623359169477</v>
       </c>
       <c r="AC8" t="n">
-        <v>126.3970806393335</v>
+        <v>141.258421752292</v>
       </c>
       <c r="AD8" t="n">
-        <v>102125.7833553633</v>
+        <v>114133.3874487121</v>
       </c>
       <c r="AE8" t="n">
-        <v>139733.0022583305</v>
+        <v>156162.3359169477</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.406260820191422e-06</v>
+        <v>1.193437801604069e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.390625</v>
       </c>
       <c r="AH8" t="n">
-        <v>126397.0806393335</v>
+        <v>141258.421752292</v>
       </c>
     </row>
     <row r="9">
@@ -12804,28 +12804,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>99.29251047966737</v>
+        <v>111.3001145730162</v>
       </c>
       <c r="AB9" t="n">
-        <v>135.8563933146278</v>
+        <v>152.2857269732449</v>
       </c>
       <c r="AC9" t="n">
-        <v>122.8904498123617</v>
+        <v>137.7517909253203</v>
       </c>
       <c r="AD9" t="n">
-        <v>99292.51047966737</v>
+        <v>111300.1145730162</v>
       </c>
       <c r="AE9" t="n">
-        <v>135856.3933146278</v>
+        <v>152285.7269732449</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.495079402433948e-06</v>
+        <v>1.209984029818664e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.358333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>122890.4498123617</v>
+        <v>137751.7909253202</v>
       </c>
     </row>
     <row r="10">
@@ -12910,28 +12910,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>96.83133747405248</v>
+        <v>108.8389415674013</v>
       </c>
       <c r="AB10" t="n">
-        <v>132.4889078290573</v>
+        <v>148.9182414876745</v>
       </c>
       <c r="AC10" t="n">
-        <v>119.8443524152374</v>
+        <v>134.705693528196</v>
       </c>
       <c r="AD10" t="n">
-        <v>96831.33747405247</v>
+        <v>108838.9415674013</v>
       </c>
       <c r="AE10" t="n">
-        <v>132488.9078290573</v>
+        <v>148918.2414876745</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.57257508594688e-06</v>
+        <v>1.224420887880075e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.330208333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>119844.3524152374</v>
+        <v>134705.693528196</v>
       </c>
     </row>
     <row r="11">
@@ -13016,28 +13016,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>94.83767255436722</v>
+        <v>106.845276647716</v>
       </c>
       <c r="AB11" t="n">
-        <v>129.7610875316566</v>
+        <v>146.1904211902738</v>
       </c>
       <c r="AC11" t="n">
-        <v>117.3768714584999</v>
+        <v>132.2382125714585</v>
       </c>
       <c r="AD11" t="n">
-        <v>94837.67255436722</v>
+        <v>106845.276647716</v>
       </c>
       <c r="AE11" t="n">
-        <v>129761.0875316566</v>
+        <v>146190.4211902737</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.61992538972518e-06</v>
+        <v>1.233241890338849e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.313541666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>117376.8714584999</v>
+        <v>132238.2125714585</v>
       </c>
     </row>
     <row r="12">
@@ -13122,28 +13122,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>93.87616360755666</v>
+        <v>105.8837677009055</v>
       </c>
       <c r="AB12" t="n">
-        <v>128.4455085718501</v>
+        <v>144.8748422304672</v>
       </c>
       <c r="AC12" t="n">
-        <v>116.1868495081902</v>
+        <v>131.0481906211488</v>
       </c>
       <c r="AD12" t="n">
-        <v>93876.16360755666</v>
+        <v>105883.7677009055</v>
       </c>
       <c r="AE12" t="n">
-        <v>128445.5085718501</v>
+        <v>144874.8422304672</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.646247453005664e-06</v>
+        <v>1.238145491084565e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>3</v>
+        <v>2.305208333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>116186.8495081902</v>
+        <v>131048.1906211488</v>
       </c>
     </row>
     <row r="13">
@@ -13228,28 +13228,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>94.16843013526935</v>
+        <v>106.1760342286181</v>
       </c>
       <c r="AB13" t="n">
-        <v>128.8454005289556</v>
+        <v>145.2747341875727</v>
       </c>
       <c r="AC13" t="n">
-        <v>116.5485763381616</v>
+        <v>131.4099174511201</v>
       </c>
       <c r="AD13" t="n">
-        <v>94168.43013526934</v>
+        <v>106176.0342286181</v>
       </c>
       <c r="AE13" t="n">
-        <v>128845.4005289556</v>
+        <v>145274.7341875727</v>
       </c>
       <c r="AF13" t="n">
-        <v>6.646541554271367e-06</v>
+        <v>1.238200279919713e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>3</v>
+        <v>2.304166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>116548.5763381616</v>
+        <v>131409.9174511201</v>
       </c>
     </row>
   </sheetData>
@@ -13525,28 +13525,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.327996720383</v>
+        <v>185.5689636986008</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.4725706354021</v>
+        <v>253.9036428571978</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.1446621397464</v>
+        <v>229.6714355389816</v>
       </c>
       <c r="AD2" t="n">
-        <v>163327.996720383</v>
+        <v>185568.9636986008</v>
       </c>
       <c r="AE2" t="n">
-        <v>223472.5706354021</v>
+        <v>253903.6428571978</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.523141421094285e-06</v>
+        <v>9.066625014713229e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.663541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>202144.6621397464</v>
+        <v>229671.4355389816</v>
       </c>
     </row>
     <row r="3">
@@ -13631,28 +13631,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.28100921238058</v>
+        <v>121.4366353360268</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.8406567733259</v>
+        <v>166.1549618729239</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.8762151444753</v>
+        <v>150.2973655117717</v>
       </c>
       <c r="AD3" t="n">
-        <v>99281.00921238058</v>
+        <v>121436.6353360268</v>
       </c>
       <c r="AE3" t="n">
-        <v>135840.6567733259</v>
+        <v>166154.9618729239</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.171116307880853e-06</v>
+        <v>1.23699863163246e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.685416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>122876.2151444753</v>
+        <v>150297.3655117717</v>
       </c>
     </row>
     <row r="4">
@@ -13737,28 +13737,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>87.97676619985494</v>
+        <v>99.01199834294324</v>
       </c>
       <c r="AB4" t="n">
-        <v>120.3736927755914</v>
+        <v>135.47258423384</v>
       </c>
       <c r="AC4" t="n">
-        <v>108.8853964826593</v>
+        <v>122.5432709315647</v>
       </c>
       <c r="AD4" t="n">
-        <v>87976.76619985493</v>
+        <v>99011.99834294325</v>
       </c>
       <c r="AE4" t="n">
-        <v>120373.6927755914</v>
+        <v>135472.58423384</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.727122894358222e-06</v>
+        <v>1.348450004826124e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.463541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>108885.3964826593</v>
+        <v>122543.2709315647</v>
       </c>
     </row>
     <row r="5">
@@ -13843,28 +13843,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>81.7963555033181</v>
+        <v>92.8315876464064</v>
       </c>
       <c r="AB5" t="n">
-        <v>111.9173822001175</v>
+        <v>127.016273658366</v>
       </c>
       <c r="AC5" t="n">
-        <v>101.2361443199995</v>
+        <v>114.8940187689048</v>
       </c>
       <c r="AD5" t="n">
-        <v>81796.3555033181</v>
+        <v>92831.58764640641</v>
       </c>
       <c r="AE5" t="n">
-        <v>111917.3822001175</v>
+        <v>127016.273658366</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.015864512228442e-06</v>
+        <v>1.406328185755023e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.3625</v>
       </c>
       <c r="AH5" t="n">
-        <v>101236.1443199995</v>
+        <v>114894.0187689048</v>
       </c>
     </row>
     <row r="6">
@@ -13949,28 +13949,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>79.10826385130869</v>
+        <v>90.143495994397</v>
       </c>
       <c r="AB6" t="n">
-        <v>108.239416611606</v>
+        <v>123.3383080698546</v>
       </c>
       <c r="AC6" t="n">
-        <v>97.90919860519725</v>
+        <v>111.5670730541026</v>
       </c>
       <c r="AD6" t="n">
-        <v>79108.26385130869</v>
+        <v>90143.495994397</v>
       </c>
       <c r="AE6" t="n">
-        <v>108239.416611606</v>
+        <v>123338.3080698546</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.143133544898512e-06</v>
+        <v>1.431839229690626e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.319791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>97909.19860519725</v>
+        <v>111567.0730541026</v>
       </c>
     </row>
     <row r="7">
@@ -14055,28 +14055,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>79.40206788264011</v>
+        <v>90.43730002572845</v>
       </c>
       <c r="AB7" t="n">
-        <v>108.6414122489925</v>
+        <v>123.7403037072411</v>
       </c>
       <c r="AC7" t="n">
-        <v>98.27282834315616</v>
+        <v>111.9307027920615</v>
       </c>
       <c r="AD7" t="n">
-        <v>79402.06788264011</v>
+        <v>90437.30002572844</v>
       </c>
       <c r="AE7" t="n">
-        <v>108641.4122489925</v>
+        <v>123740.3037072411</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.142974458607675e-06</v>
+        <v>1.431807340885706e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.319791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>98272.82834315616</v>
+        <v>111930.7027920615</v>
       </c>
     </row>
   </sheetData>
@@ -14352,28 +14352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.8217635576942</v>
+        <v>132.4671020731172</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.6819112964671</v>
+        <v>181.2473330924513</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.7740236219103</v>
+        <v>163.9493420043882</v>
       </c>
       <c r="AD2" t="n">
-        <v>121821.7635576942</v>
+        <v>132467.1020731172</v>
       </c>
       <c r="AE2" t="n">
-        <v>166681.9112964671</v>
+        <v>181247.3330924513</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.440263643144595e-06</v>
+        <v>1.138137176421432e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.172916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>150774.0236219103</v>
+        <v>163949.3420043882</v>
       </c>
     </row>
     <row r="3">
@@ -14458,28 +14458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.31033960500555</v>
+        <v>92.04092946644907</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.2523938065384</v>
+        <v>125.9344602551718</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.6346214853863</v>
+        <v>113.9154521185765</v>
       </c>
       <c r="AD3" t="n">
-        <v>81310.33960500555</v>
+        <v>92040.92946644907</v>
       </c>
       <c r="AE3" t="n">
-        <v>111252.3938065384</v>
+        <v>125934.4602551718</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.860774165823795e-06</v>
+        <v>1.435316861342828e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>100634.6214853863</v>
+        <v>113915.4521185765</v>
       </c>
     </row>
     <row r="4">
@@ -14564,28 +14564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>73.32077340975302</v>
+        <v>83.88077107060435</v>
       </c>
       <c r="AB4" t="n">
-        <v>100.3207168634153</v>
+        <v>114.7693715372019</v>
       </c>
       <c r="AC4" t="n">
-        <v>90.74624844700641</v>
+        <v>103.8159437975456</v>
       </c>
       <c r="AD4" t="n">
-        <v>73320.77340975302</v>
+        <v>83880.77107060436</v>
       </c>
       <c r="AE4" t="n">
-        <v>100320.7168634153</v>
+        <v>114769.3715372019</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.321793796492663e-06</v>
+        <v>1.531765051199492e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.357291666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>90746.24844700641</v>
+        <v>103815.9437975456</v>
       </c>
     </row>
     <row r="5">
@@ -14670,28 +14670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>73.26694095188428</v>
+        <v>83.8269386127356</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.2470609196388</v>
+        <v>114.6957155934254</v>
       </c>
       <c r="AC5" t="n">
-        <v>90.67962212312722</v>
+        <v>103.7493174736664</v>
       </c>
       <c r="AD5" t="n">
-        <v>73266.94095188427</v>
+        <v>83826.9386127356</v>
       </c>
       <c r="AE5" t="n">
-        <v>100247.0609196388</v>
+        <v>114695.7155934254</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.333725289450305e-06</v>
+        <v>1.534261194143303e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.354166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>90679.62212312722</v>
+        <v>103749.3174736664</v>
       </c>
     </row>
   </sheetData>
@@ -26716,28 +26716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.27615865871648</v>
+        <v>108.7215882099326</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.7833347460687</v>
+        <v>148.7576734467211</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.2559427984105</v>
+        <v>134.5604498757125</v>
       </c>
       <c r="AD2" t="n">
-        <v>88276.15865871648</v>
+        <v>108721.5882099326</v>
       </c>
       <c r="AE2" t="n">
-        <v>120783.3347460687</v>
+        <v>148757.6734467211</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.190832482334304e-06</v>
+        <v>1.345797691193947e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.884375</v>
       </c>
       <c r="AH2" t="n">
-        <v>109255.9427984105</v>
+        <v>134560.4498757125</v>
       </c>
     </row>
     <row r="3">
@@ -26822,28 +26822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.12654430747352</v>
+        <v>79.30667816434681</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.58198756935056</v>
+        <v>108.5108958281264</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.55521542240825</v>
+        <v>98.15476822631643</v>
       </c>
       <c r="AD3" t="n">
-        <v>69126.54430747352</v>
+        <v>79306.67816434681</v>
       </c>
       <c r="AE3" t="n">
-        <v>94581.98756935056</v>
+        <v>108510.8958281263</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.393719770603115e-06</v>
+        <v>1.607288038403005e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.414583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>85555.21542240825</v>
+        <v>98154.76822631643</v>
       </c>
     </row>
     <row r="4">
@@ -26928,28 +26928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.87962366572418</v>
+        <v>79.05975752259748</v>
       </c>
       <c r="AB4" t="n">
-        <v>94.24413985393939</v>
+        <v>108.1730481127152</v>
       </c>
       <c r="AC4" t="n">
-        <v>85.24961141878356</v>
+        <v>97.84916422269173</v>
       </c>
       <c r="AD4" t="n">
-        <v>68879.62366572418</v>
+        <v>79059.75752259747</v>
       </c>
       <c r="AE4" t="n">
-        <v>94244.13985393938</v>
+        <v>108173.0481127152</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.428176140125992e-06</v>
+        <v>1.614778356172568e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.404166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>85249.61141878356</v>
+        <v>97849.16422269173</v>
       </c>
     </row>
   </sheetData>
@@ -27225,28 +27225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.58666140434581</v>
+        <v>70.18437959995788</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.89734302825326</v>
+        <v>96.02936448492633</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.98573695680795</v>
+        <v>86.8644567165682</v>
       </c>
       <c r="AD2" t="n">
-        <v>60586.66140434581</v>
+        <v>70184.37959995787</v>
       </c>
       <c r="AE2" t="n">
-        <v>82897.34302825326</v>
+        <v>96029.36448492634</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.301315735944127e-06</v>
+        <v>1.736637634713837e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>74985.73695680796</v>
+        <v>86864.45671656819</v>
       </c>
     </row>
   </sheetData>
@@ -27522,28 +27522,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.349841103819</v>
+        <v>252.3111023601053</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.8065707989817</v>
+        <v>345.2231814291709</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.8573121123082</v>
+        <v>312.2755655174521</v>
       </c>
       <c r="AD2" t="n">
-        <v>229349.841103819</v>
+        <v>252311.1023601053</v>
       </c>
       <c r="AE2" t="n">
-        <v>313806.5707989817</v>
+        <v>345223.1814291709</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.774424596612604e-06</v>
+        <v>7.324566070814192e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.246875</v>
       </c>
       <c r="AH2" t="n">
-        <v>283857.3121123082</v>
+        <v>312275.5655174521</v>
       </c>
     </row>
     <row r="3">
@@ -27628,28 +27628,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.0046931247043</v>
+        <v>140.9658648724395</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.4592271327903</v>
+        <v>192.8757152934311</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.0497851047298</v>
+        <v>174.4679277286471</v>
       </c>
       <c r="AD3" t="n">
-        <v>118004.6931247043</v>
+        <v>140965.8648724395</v>
       </c>
       <c r="AE3" t="n">
-        <v>161459.2271327903</v>
+        <v>192875.7152934311</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.589164249790306e-06</v>
+        <v>1.08462102713516e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.867708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>146049.7851047298</v>
+        <v>174467.9277286471</v>
       </c>
     </row>
     <row r="4">
@@ -27734,28 +27734,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.1660080491749</v>
+        <v>113.7746052049</v>
       </c>
       <c r="AB4" t="n">
-        <v>139.7880394589919</v>
+        <v>155.6714342226088</v>
       </c>
       <c r="AC4" t="n">
-        <v>126.4468651668089</v>
+        <v>140.8143710266758</v>
       </c>
       <c r="AD4" t="n">
-        <v>102166.0080491749</v>
+        <v>113774.6052049</v>
       </c>
       <c r="AE4" t="n">
-        <v>139788.0394589919</v>
+        <v>155671.4342226088</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.228185258747997e-06</v>
+        <v>1.208628050747436e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.573958333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>126446.8651668089</v>
+        <v>140814.3710266758</v>
       </c>
     </row>
     <row r="5">
@@ -27840,28 +27840,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>94.94072509925189</v>
+        <v>106.3787300543847</v>
       </c>
       <c r="AB5" t="n">
-        <v>129.9020885699252</v>
+        <v>145.5520715586952</v>
       </c>
       <c r="AC5" t="n">
-        <v>117.5044155555724</v>
+        <v>131.6607861327882</v>
       </c>
       <c r="AD5" t="n">
-        <v>94940.7250992519</v>
+        <v>106378.7300543848</v>
       </c>
       <c r="AE5" t="n">
-        <v>129902.0885699252</v>
+        <v>145552.0715586952</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.549926874382606e-06</v>
+        <v>1.271064527119521e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.446875</v>
       </c>
       <c r="AH5" t="n">
-        <v>117504.4155555724</v>
+        <v>131660.7861327882</v>
       </c>
     </row>
     <row r="6">
@@ -27946,28 +27946,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>90.28606728684427</v>
+        <v>101.7240722419771</v>
       </c>
       <c r="AB6" t="n">
-        <v>123.5333804019824</v>
+        <v>139.1833633907523</v>
       </c>
       <c r="AC6" t="n">
-        <v>111.7435279566379</v>
+        <v>125.8998985338538</v>
       </c>
       <c r="AD6" t="n">
-        <v>90286.06728684428</v>
+        <v>101724.0722419771</v>
       </c>
       <c r="AE6" t="n">
-        <v>123533.3804019824</v>
+        <v>139183.3633907523</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.745649177150288e-06</v>
+        <v>1.309045970421909e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.376041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>111743.5279566379</v>
+        <v>125899.8985338538</v>
       </c>
     </row>
     <row r="7">
@@ -28052,28 +28052,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>86.50074078718815</v>
+        <v>97.93874574232099</v>
       </c>
       <c r="AB7" t="n">
-        <v>118.3541296883363</v>
+        <v>134.0041126771063</v>
       </c>
       <c r="AC7" t="n">
-        <v>107.0585776619766</v>
+        <v>121.2149482391924</v>
       </c>
       <c r="AD7" t="n">
-        <v>86500.74078718814</v>
+        <v>97938.74574232099</v>
       </c>
       <c r="AE7" t="n">
-        <v>118354.1296883363</v>
+        <v>134004.1126771063</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.880900674110029e-06</v>
+        <v>1.33529258100587e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.329166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>107058.5776619766</v>
+        <v>121214.9482391924</v>
       </c>
     </row>
     <row r="8">
@@ -28158,28 +28158,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>84.77644767576754</v>
+        <v>96.2144526309004</v>
       </c>
       <c r="AB8" t="n">
-        <v>115.9948757828485</v>
+        <v>131.6448587716185</v>
       </c>
       <c r="AC8" t="n">
-        <v>104.9244876379942</v>
+        <v>119.08085821521</v>
       </c>
       <c r="AD8" t="n">
-        <v>84776.44767576754</v>
+        <v>96214.4526309004</v>
       </c>
       <c r="AE8" t="n">
-        <v>115994.8757828485</v>
+        <v>131644.8587716185</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.948911096927101e-06</v>
+        <v>1.348490535360945e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.30625</v>
       </c>
       <c r="AH8" t="n">
-        <v>104924.4876379942</v>
+        <v>119080.85821521</v>
       </c>
     </row>
     <row r="9">
@@ -28264,28 +28264,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>85.07514091930202</v>
+        <v>96.51314587443487</v>
       </c>
       <c r="AB9" t="n">
-        <v>116.4035610560681</v>
+        <v>132.0535440448381</v>
       </c>
       <c r="AC9" t="n">
-        <v>105.2941685623312</v>
+        <v>119.450539139547</v>
       </c>
       <c r="AD9" t="n">
-        <v>85075.14091930201</v>
+        <v>96513.14587443486</v>
       </c>
       <c r="AE9" t="n">
-        <v>116403.5610560681</v>
+        <v>132053.5440448381</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.947834008782939e-06</v>
+        <v>1.34828151798428e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.307291666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>105294.1685623311</v>
+        <v>119450.539139547</v>
       </c>
     </row>
   </sheetData>
@@ -28561,28 +28561,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>350.8738859988924</v>
+        <v>374.8476369156922</v>
       </c>
       <c r="AB2" t="n">
-        <v>480.0811302870501</v>
+        <v>512.8830739386611</v>
       </c>
       <c r="AC2" t="n">
-        <v>434.2628610105514</v>
+        <v>463.9342331978699</v>
       </c>
       <c r="AD2" t="n">
-        <v>350873.8859988924</v>
+        <v>374847.6369156922</v>
       </c>
       <c r="AE2" t="n">
-        <v>480081.1302870501</v>
+        <v>512883.0739386612</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.938786179357074e-06</v>
+        <v>5.514315550356123e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.256250000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>434262.8610105515</v>
+        <v>463934.2331978699</v>
       </c>
     </row>
     <row r="3">
@@ -28667,28 +28667,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>157.128873813831</v>
+        <v>169.1157940265064</v>
       </c>
       <c r="AB3" t="n">
-        <v>214.9906571886611</v>
+        <v>231.3916902492324</v>
       </c>
       <c r="AC3" t="n">
-        <v>194.4722506079192</v>
+        <v>209.3079920921894</v>
       </c>
       <c r="AD3" t="n">
-        <v>157128.873813831</v>
+        <v>169115.7940265064</v>
       </c>
       <c r="AE3" t="n">
-        <v>214990.657188661</v>
+        <v>231391.6902492324</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.93781318592075e-06</v>
+        <v>9.265274291521676e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.128125</v>
       </c>
       <c r="AH3" t="n">
-        <v>194472.2506079192</v>
+        <v>209307.9920921893</v>
       </c>
     </row>
     <row r="4">
@@ -28773,28 +28773,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.13264974152</v>
+        <v>145.0209702951969</v>
       </c>
       <c r="AB4" t="n">
-        <v>165.739035371622</v>
+        <v>198.4240894314703</v>
       </c>
       <c r="AC4" t="n">
-        <v>149.9211344519974</v>
+        <v>179.4867728261456</v>
       </c>
       <c r="AD4" t="n">
-        <v>121132.64974152</v>
+        <v>145020.970295197</v>
       </c>
       <c r="AE4" t="n">
-        <v>165739.035371622</v>
+        <v>198424.0894314703</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.659461638742691e-06</v>
+        <v>1.061936984064293e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.729166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>149921.1344519974</v>
+        <v>179486.7728261456</v>
       </c>
     </row>
     <row r="5">
@@ -28879,28 +28879,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>111.8103819484217</v>
+        <v>123.8825535071177</v>
       </c>
       <c r="AB5" t="n">
-        <v>152.9838973076824</v>
+        <v>169.5015750209029</v>
       </c>
       <c r="AC5" t="n">
-        <v>138.3833288629274</v>
+        <v>153.3245825979097</v>
       </c>
       <c r="AD5" t="n">
-        <v>111810.3819484217</v>
+        <v>123882.5535071177</v>
       </c>
       <c r="AE5" t="n">
-        <v>152983.8973076823</v>
+        <v>169501.5750209029</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.008794647752039e-06</v>
+        <v>1.127485558416659e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.570833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>138383.3288629274</v>
+        <v>153324.5825979097</v>
       </c>
     </row>
     <row r="6">
@@ -28985,28 +28985,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>106.1463217269119</v>
+        <v>118.0479010850156</v>
       </c>
       <c r="AB6" t="n">
-        <v>145.2340802319152</v>
+        <v>161.5183461702889</v>
       </c>
       <c r="AC6" t="n">
-        <v>131.3731434519324</v>
+        <v>146.1032619042637</v>
       </c>
       <c r="AD6" t="n">
-        <v>106146.3217269119</v>
+        <v>118047.9010850156</v>
       </c>
       <c r="AE6" t="n">
-        <v>145234.0802319152</v>
+        <v>161518.3461702889</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.236987984282338e-06</v>
+        <v>1.170303578759738e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.476041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>131373.1434519324</v>
+        <v>146103.2619042637</v>
       </c>
     </row>
     <row r="7">
@@ -29091,28 +29091,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>101.9418487983641</v>
+        <v>113.8434281564678</v>
       </c>
       <c r="AB7" t="n">
-        <v>139.4813348828245</v>
+        <v>155.7656008211982</v>
       </c>
       <c r="AC7" t="n">
-        <v>126.1694320449282</v>
+        <v>140.8995504972595</v>
       </c>
       <c r="AD7" t="n">
-        <v>101941.8487983641</v>
+        <v>113843.4281564678</v>
       </c>
       <c r="AE7" t="n">
-        <v>139481.3348828244</v>
+        <v>155765.6008211982</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.395196099992429e-06</v>
+        <v>1.199989626651917e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.414583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>126169.4320449282</v>
+        <v>140899.5504972595</v>
       </c>
     </row>
     <row r="8">
@@ -29197,28 +29197,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>98.73639830037456</v>
+        <v>110.6379776584783</v>
       </c>
       <c r="AB8" t="n">
-        <v>135.0954960969819</v>
+        <v>151.3797620353557</v>
       </c>
       <c r="AC8" t="n">
-        <v>122.2021715572417</v>
+        <v>136.932290009573</v>
       </c>
       <c r="AD8" t="n">
-        <v>98736.39830037457</v>
+        <v>110637.9776584783</v>
       </c>
       <c r="AE8" t="n">
-        <v>135095.4960969819</v>
+        <v>151379.7620353557</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.508477262506496e-06</v>
+        <v>1.221245615958032e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.372916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>122202.1715572417</v>
+        <v>136932.290009573</v>
       </c>
     </row>
     <row r="9">
@@ -29303,28 +29303,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>95.88930935160955</v>
+        <v>107.7908887097133</v>
       </c>
       <c r="AB9" t="n">
-        <v>131.1999833925839</v>
+        <v>147.4842493309577</v>
       </c>
       <c r="AC9" t="n">
-        <v>118.6784411179638</v>
+        <v>133.4085595702951</v>
       </c>
       <c r="AD9" t="n">
-        <v>95889.30935160955</v>
+        <v>107790.8887097133</v>
       </c>
       <c r="AE9" t="n">
-        <v>131199.9833925839</v>
+        <v>147484.2493309577</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.602927655859192e-06</v>
+        <v>1.238968214371639e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.339583333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>118678.4411179638</v>
+        <v>133408.5595702951</v>
       </c>
     </row>
     <row r="10">
@@ -29409,28 +29409,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>93.12248024072103</v>
+        <v>105.0240595988248</v>
       </c>
       <c r="AB10" t="n">
-        <v>127.4142857391826</v>
+        <v>143.6985516775563</v>
       </c>
       <c r="AC10" t="n">
-        <v>115.2540451353419</v>
+        <v>129.9841635876732</v>
       </c>
       <c r="AD10" t="n">
-        <v>93122.48024072104</v>
+        <v>105024.0595988248</v>
       </c>
       <c r="AE10" t="n">
-        <v>127414.2857391826</v>
+        <v>143698.5516775563</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.678695553823443e-06</v>
+        <v>1.253185243868269e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.3125</v>
       </c>
       <c r="AH10" t="n">
-        <v>115254.0451353419</v>
+        <v>129984.1635876732</v>
       </c>
     </row>
     <row r="11">
@@ -29515,28 +29515,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>92.22295110310442</v>
+        <v>104.1245304612081</v>
       </c>
       <c r="AB11" t="n">
-        <v>126.1835102886714</v>
+        <v>142.4677762270451</v>
       </c>
       <c r="AC11" t="n">
-        <v>114.1407331664229</v>
+        <v>128.8708516187542</v>
       </c>
       <c r="AD11" t="n">
-        <v>92222.95110310442</v>
+        <v>104124.5304612081</v>
       </c>
       <c r="AE11" t="n">
-        <v>126183.5102886714</v>
+        <v>142467.7762270451</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.698267691849435e-06</v>
+        <v>1.256857744638435e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.30625</v>
       </c>
       <c r="AH11" t="n">
-        <v>114140.7331664229</v>
+        <v>128870.8516187542</v>
       </c>
     </row>
     <row r="12">
@@ -29621,28 +29621,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>92.61394586195372</v>
+        <v>104.5155252200574</v>
       </c>
       <c r="AB12" t="n">
-        <v>126.7184865672001</v>
+        <v>143.0027525055739</v>
       </c>
       <c r="AC12" t="n">
-        <v>114.6246520597729</v>
+        <v>129.3547705121042</v>
       </c>
       <c r="AD12" t="n">
-        <v>92613.94586195372</v>
+        <v>104515.5252200574</v>
       </c>
       <c r="AE12" t="n">
-        <v>126718.4865672001</v>
+        <v>143002.7525055739</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.69174364584077e-06</v>
+        <v>1.255633577715046e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>3</v>
+        <v>2.308333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>114624.6520597729</v>
+        <v>129354.7705121042</v>
       </c>
     </row>
   </sheetData>
@@ -29918,28 +29918,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.46715750991363</v>
+        <v>75.70220258180855</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.62910017709441</v>
+        <v>103.5790933178602</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.12484921284589</v>
+        <v>93.69365002580025</v>
       </c>
       <c r="AD2" t="n">
-        <v>57467.15750991363</v>
+        <v>75702.20258180855</v>
       </c>
       <c r="AE2" t="n">
-        <v>78629.10017709441</v>
+        <v>103579.0933178602</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.873883360601443e-06</v>
+        <v>1.719106062907525e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.8875</v>
       </c>
       <c r="AH2" t="n">
-        <v>71124.84921284589</v>
+        <v>93693.65002580025</v>
       </c>
     </row>
   </sheetData>
@@ -30215,28 +30215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.5183508913728</v>
+        <v>155.9756526394661</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.0539422202983</v>
+        <v>213.4127691013683</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.488092296175</v>
+        <v>193.0449539450974</v>
       </c>
       <c r="AD2" t="n">
-        <v>134518.3508913728</v>
+        <v>155975.6526394661</v>
       </c>
       <c r="AE2" t="n">
-        <v>184053.9422202983</v>
+        <v>213412.7691013683</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.111935206860228e-06</v>
+        <v>1.052692361046425e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>166488.092296175</v>
+        <v>193044.9539450974</v>
       </c>
     </row>
     <row r="3">
@@ -30321,28 +30321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.31044728444914</v>
+        <v>98.20973511336354</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.4620058396178</v>
+        <v>134.3748922897738</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.0607196682941</v>
+        <v>121.5503411660195</v>
       </c>
       <c r="AD3" t="n">
-        <v>87310.44728444914</v>
+        <v>98209.73511336354</v>
       </c>
       <c r="AE3" t="n">
-        <v>119462.0058396178</v>
+        <v>134374.8922897739</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.61608915493043e-06</v>
+        <v>1.362440295418985e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.570833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>108060.7196682941</v>
+        <v>121550.3411660195</v>
       </c>
     </row>
     <row r="4">
@@ -30427,28 +30427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>77.70639713279303</v>
+        <v>88.43509276111523</v>
       </c>
       <c r="AB4" t="n">
-        <v>106.3213207213391</v>
+        <v>121.0007953966483</v>
       </c>
       <c r="AC4" t="n">
-        <v>96.17416309463229</v>
+        <v>109.4526493097067</v>
       </c>
       <c r="AD4" t="n">
-        <v>77706.39713279303</v>
+        <v>88435.09276111523</v>
       </c>
       <c r="AE4" t="n">
-        <v>106321.3207213391</v>
+        <v>121000.7953966483</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.138811637589501e-06</v>
+        <v>1.470083671591666e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.382291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>96174.1630946323</v>
+        <v>109452.6493097067</v>
       </c>
     </row>
     <row r="5">
@@ -30533,28 +30533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>75.04365561859018</v>
+        <v>85.77235124691236</v>
       </c>
       <c r="AB5" t="n">
-        <v>102.6780403097437</v>
+        <v>117.3575149850529</v>
       </c>
       <c r="AC5" t="n">
-        <v>92.87859225214225</v>
+        <v>106.1570784672167</v>
       </c>
       <c r="AD5" t="n">
-        <v>75043.65561859019</v>
+        <v>85772.35124691237</v>
       </c>
       <c r="AE5" t="n">
-        <v>102678.0403097437</v>
+        <v>117357.5149850529</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.282188813401642e-06</v>
+        <v>1.499609096233844e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.335416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>92878.59225214226</v>
+        <v>106157.0784672167</v>
       </c>
     </row>
   </sheetData>
@@ -30830,28 +30830,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.8757740091162</v>
+        <v>202.3983886666631</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.1139695582462</v>
+        <v>276.9304045603183</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.6251977268044</v>
+        <v>250.5005554234267</v>
       </c>
       <c r="AD2" t="n">
-        <v>179875.7740091163</v>
+        <v>202398.3886666631</v>
       </c>
       <c r="AE2" t="n">
-        <v>246113.9695582462</v>
+        <v>276930.4045603183</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.254759401031958e-06</v>
+        <v>8.429461724783134e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.848958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>222625.1977268044</v>
+        <v>250500.5554234267</v>
       </c>
     </row>
     <row r="3">
@@ -30936,28 +30936,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.1748313195669</v>
+        <v>127.6121051225421</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.9048441974545</v>
+        <v>174.604512077329</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.1707678390057</v>
+        <v>157.9405025036892</v>
       </c>
       <c r="AD3" t="n">
-        <v>105174.8313195669</v>
+        <v>127612.1051225421</v>
       </c>
       <c r="AE3" t="n">
-        <v>143904.8441974545</v>
+        <v>174604.512077329</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.977605218654758e-06</v>
+        <v>1.184273648570892e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.739583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>130170.7678390057</v>
+        <v>157940.5025036892</v>
       </c>
     </row>
     <row r="4">
@@ -31042,28 +31042,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>92.81005260063131</v>
+        <v>104.1567007839763</v>
       </c>
       <c r="AB4" t="n">
-        <v>126.9868084586774</v>
+        <v>142.511793081911</v>
       </c>
       <c r="AC4" t="n">
-        <v>114.8673656865198</v>
+        <v>128.9106675667697</v>
       </c>
       <c r="AD4" t="n">
-        <v>92810.05260063132</v>
+        <v>104156.7007839763</v>
       </c>
       <c r="AE4" t="n">
-        <v>126986.8084586774</v>
+        <v>142511.793081911</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.549581225637031e-06</v>
+        <v>1.297592626306318e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.501041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>114867.3656865198</v>
+        <v>128910.6675667697</v>
       </c>
     </row>
     <row r="5">
@@ -31148,28 +31148,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>86.18505459298987</v>
+        <v>97.36111057574269</v>
       </c>
       <c r="AB5" t="n">
-        <v>117.9221939103425</v>
+        <v>133.2137667587293</v>
       </c>
       <c r="AC5" t="n">
-        <v>106.6678652284087</v>
+        <v>120.5000318260076</v>
       </c>
       <c r="AD5" t="n">
-        <v>86185.05459298987</v>
+        <v>97361.11057574268</v>
       </c>
       <c r="AE5" t="n">
-        <v>117922.1939103425</v>
+        <v>133213.7667587293</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.86685653682181e-06</v>
+        <v>1.360450706864342e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.385416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>106667.8652284087</v>
+        <v>120500.0318260076</v>
       </c>
     </row>
     <row r="6">
@@ -31254,28 +31254,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>81.91130120246737</v>
+        <v>93.0873571852202</v>
       </c>
       <c r="AB6" t="n">
-        <v>112.0746559767398</v>
+        <v>127.3662288251265</v>
       </c>
       <c r="AC6" t="n">
-        <v>101.3784081081161</v>
+        <v>115.210574705715</v>
       </c>
       <c r="AD6" t="n">
-        <v>81911.30120246737</v>
+        <v>93087.3571852202</v>
       </c>
       <c r="AE6" t="n">
-        <v>112074.6559767398</v>
+        <v>127366.2288251265</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.03932978576616e-06</v>
+        <v>1.394620832915953e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.327083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>101378.4081081161</v>
+        <v>115210.574705715</v>
       </c>
     </row>
     <row r="7">
@@ -31360,28 +31360,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>81.17888967778087</v>
+        <v>92.3549456605337</v>
       </c>
       <c r="AB7" t="n">
-        <v>111.0725382169482</v>
+        <v>126.364111065335</v>
       </c>
       <c r="AC7" t="n">
-        <v>100.4719310608376</v>
+        <v>114.3040976584365</v>
       </c>
       <c r="AD7" t="n">
-        <v>81178.88967778087</v>
+        <v>92354.9456605337</v>
       </c>
       <c r="AE7" t="n">
-        <v>111072.5382169482</v>
+        <v>126364.111065335</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.078163780742693e-06</v>
+        <v>1.402314562300409e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.313541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>100471.9310608376</v>
+        <v>114304.0976584365</v>
       </c>
     </row>
     <row r="8">
@@ -31466,28 +31466,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>81.47286664879029</v>
+        <v>92.6489226315431</v>
       </c>
       <c r="AB8" t="n">
-        <v>111.4747704780317</v>
+        <v>126.7663433264185</v>
       </c>
       <c r="AC8" t="n">
-        <v>100.8357748394599</v>
+        <v>114.6679414370588</v>
       </c>
       <c r="AD8" t="n">
-        <v>81472.86664879028</v>
+        <v>92648.9226315431</v>
       </c>
       <c r="AE8" t="n">
-        <v>111474.7704780317</v>
+        <v>126766.3433264185</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.078163780742693e-06</v>
+        <v>1.402314562300409e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.313541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>100835.7748394599</v>
+        <v>114667.9414370588</v>
       </c>
     </row>
   </sheetData>
